--- a/Base_de_Dados/Brazil Serie A_2022.xlsx
+++ b/Base_de_Dados/Brazil Serie A_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="282">
   <si>
     <t>League</t>
   </si>
@@ -604,6 +604,24 @@
     <t>['30', '54']</t>
   </si>
   <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['56', '59', '63', '71', '90+2']</t>
+  </si>
+  <si>
+    <t>['25', '59', '61']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['36', '71', '90+3']</t>
+  </si>
+  <si>
     <t>['84']</t>
   </si>
   <si>
@@ -670,9 +688,6 @@
     <t>['33']</t>
   </si>
   <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['25', '70']</t>
   </si>
   <si>
@@ -689,9 +704,6 @@
   </si>
   <si>
     <t>['67']</t>
-  </si>
-  <si>
-    <t>['79']</t>
   </si>
   <si>
     <t>['45+11']</t>
@@ -1209,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO211"/>
+  <dimension ref="A1:AO221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1569,7 +1581,7 @@
         <v>64</v>
       </c>
       <c r="AI3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AJ3">
         <v>5</v>
@@ -1694,7 +1706,7 @@
         <v>65</v>
       </c>
       <c r="AI4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AJ4">
         <v>5</v>
@@ -2069,7 +2081,7 @@
         <v>68</v>
       </c>
       <c r="AI7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="AJ7">
         <v>5</v>
@@ -2194,7 +2206,7 @@
         <v>63</v>
       </c>
       <c r="AI8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AJ8">
         <v>5</v>
@@ -2569,7 +2581,7 @@
         <v>71</v>
       </c>
       <c r="AI11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AJ11">
         <v>9</v>
@@ -2694,7 +2706,7 @@
         <v>72</v>
       </c>
       <c r="AI12" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AJ12">
         <v>6</v>
@@ -3069,7 +3081,7 @@
         <v>63</v>
       </c>
       <c r="AI15" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AJ15">
         <v>2</v>
@@ -3819,7 +3831,7 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AJ21">
         <v>6</v>
@@ -4194,7 +4206,7 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AJ24">
         <v>3</v>
@@ -4319,7 +4331,7 @@
         <v>63</v>
       </c>
       <c r="AI25" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AJ25">
         <v>4</v>
@@ -4569,7 +4581,7 @@
         <v>83</v>
       </c>
       <c r="AI27" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AJ27">
         <v>6</v>
@@ -4819,7 +4831,7 @@
         <v>63</v>
       </c>
       <c r="AI29" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AJ29">
         <v>4</v>
@@ -4944,7 +4956,7 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AJ30">
         <v>3</v>
@@ -5069,7 +5081,7 @@
         <v>86</v>
       </c>
       <c r="AI31" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AJ31">
         <v>4</v>
@@ -5444,7 +5456,7 @@
         <v>87</v>
       </c>
       <c r="AI34" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AJ34">
         <v>3</v>
@@ -5569,7 +5581,7 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AJ35">
         <v>6</v>
@@ -5694,7 +5706,7 @@
         <v>89</v>
       </c>
       <c r="AI36" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AJ36">
         <v>5</v>
@@ -5819,7 +5831,7 @@
         <v>90</v>
       </c>
       <c r="AI37" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AJ37">
         <v>9</v>
@@ -6319,7 +6331,7 @@
         <v>93</v>
       </c>
       <c r="AI41" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AJ41">
         <v>9</v>
@@ -6944,7 +6956,7 @@
         <v>96</v>
       </c>
       <c r="AI46" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AJ46">
         <v>7</v>
@@ -7069,7 +7081,7 @@
         <v>63</v>
       </c>
       <c r="AI47" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AJ47">
         <v>6</v>
@@ -7694,7 +7706,7 @@
         <v>100</v>
       </c>
       <c r="AI52" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AJ52">
         <v>5</v>
@@ -7944,7 +7956,7 @@
         <v>102</v>
       </c>
       <c r="AI54" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AJ54">
         <v>5</v>
@@ -8194,7 +8206,7 @@
         <v>104</v>
       </c>
       <c r="AI56" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AJ56">
         <v>7</v>
@@ -8319,7 +8331,7 @@
         <v>105</v>
       </c>
       <c r="AI57" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AJ57">
         <v>11</v>
@@ -8569,7 +8581,7 @@
         <v>107</v>
       </c>
       <c r="AI59" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AJ59">
         <v>7</v>
@@ -8694,7 +8706,7 @@
         <v>108</v>
       </c>
       <c r="AI60" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AJ60">
         <v>6</v>
@@ -9319,7 +9331,7 @@
         <v>63</v>
       </c>
       <c r="AI65" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AJ65">
         <v>4</v>
@@ -9444,7 +9456,7 @@
         <v>112</v>
       </c>
       <c r="AI66" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AJ66">
         <v>6</v>
@@ -10194,7 +10206,7 @@
         <v>116</v>
       </c>
       <c r="AI72" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AJ72">
         <v>8</v>
@@ -10694,7 +10706,7 @@
         <v>119</v>
       </c>
       <c r="AI76" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AJ76">
         <v>7</v>
@@ -10944,7 +10956,7 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="AJ78">
         <v>4</v>
@@ -11194,7 +11206,7 @@
         <v>121</v>
       </c>
       <c r="AI80" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="AJ80">
         <v>6</v>
@@ -11319,7 +11331,7 @@
         <v>63</v>
       </c>
       <c r="AI81" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AJ81">
         <v>4</v>
@@ -11444,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="AI82" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AJ82">
         <v>7</v>
@@ -11694,7 +11706,7 @@
         <v>124</v>
       </c>
       <c r="AI84" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AJ84">
         <v>7</v>
@@ -11819,7 +11831,7 @@
         <v>68</v>
       </c>
       <c r="AI85" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AJ85">
         <v>9</v>
@@ -11944,7 +11956,7 @@
         <v>63</v>
       </c>
       <c r="AI86" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AJ86">
         <v>5</v>
@@ -12194,7 +12206,7 @@
         <v>125</v>
       </c>
       <c r="AI88" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AJ88">
         <v>5</v>
@@ -12444,7 +12456,7 @@
         <v>63</v>
       </c>
       <c r="AI90" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AJ90">
         <v>3</v>
@@ -12569,7 +12581,7 @@
         <v>126</v>
       </c>
       <c r="AI91" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AJ91">
         <v>6</v>
@@ -12819,7 +12831,7 @@
         <v>112</v>
       </c>
       <c r="AI93" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AJ93">
         <v>5</v>
@@ -12944,7 +12956,7 @@
         <v>63</v>
       </c>
       <c r="AI94" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AJ94">
         <v>4</v>
@@ -13319,7 +13331,7 @@
         <v>129</v>
       </c>
       <c r="AI97" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AJ97">
         <v>6</v>
@@ -13444,7 +13456,7 @@
         <v>130</v>
       </c>
       <c r="AI98" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AJ98">
         <v>10</v>
@@ -13694,7 +13706,7 @@
         <v>99</v>
       </c>
       <c r="AI100" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AJ100">
         <v>5</v>
@@ -13819,7 +13831,7 @@
         <v>132</v>
       </c>
       <c r="AI101" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AJ101">
         <v>3</v>
@@ -14069,7 +14081,7 @@
         <v>134</v>
       </c>
       <c r="AI103" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AJ103">
         <v>5</v>
@@ -14194,7 +14206,7 @@
         <v>63</v>
       </c>
       <c r="AI104" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AJ104">
         <v>4</v>
@@ -14444,7 +14456,7 @@
         <v>136</v>
       </c>
       <c r="AI106" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AJ106">
         <v>5</v>
@@ -14819,7 +14831,7 @@
         <v>63</v>
       </c>
       <c r="AI109" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AJ109">
         <v>5</v>
@@ -15194,7 +15206,7 @@
         <v>139</v>
       </c>
       <c r="AI112" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AJ112">
         <v>2</v>
@@ -15444,7 +15456,7 @@
         <v>140</v>
       </c>
       <c r="AI114" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AJ114">
         <v>7</v>
@@ -15694,7 +15706,7 @@
         <v>142</v>
       </c>
       <c r="AI116" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AJ116">
         <v>3</v>
@@ -15944,7 +15956,7 @@
         <v>88</v>
       </c>
       <c r="AI118" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AJ118">
         <v>4</v>
@@ -16194,7 +16206,7 @@
         <v>144</v>
       </c>
       <c r="AI120" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AJ120">
         <v>16</v>
@@ -16319,7 +16331,7 @@
         <v>145</v>
       </c>
       <c r="AI121" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AJ121">
         <v>5</v>
@@ -16569,7 +16581,7 @@
         <v>146</v>
       </c>
       <c r="AI123" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AJ123">
         <v>6</v>
@@ -16819,7 +16831,7 @@
         <v>63</v>
       </c>
       <c r="AI125" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AJ125">
         <v>5</v>
@@ -17069,7 +17081,7 @@
         <v>148</v>
       </c>
       <c r="AI127" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AJ127">
         <v>11</v>
@@ -17319,7 +17331,7 @@
         <v>149</v>
       </c>
       <c r="AI129" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AJ129">
         <v>6</v>
@@ -17569,7 +17581,7 @@
         <v>110</v>
       </c>
       <c r="AI131" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AJ131">
         <v>4</v>
@@ -17819,7 +17831,7 @@
         <v>152</v>
       </c>
       <c r="AI133" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AJ133">
         <v>7</v>
@@ -18194,7 +18206,7 @@
         <v>154</v>
       </c>
       <c r="AI136" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AJ136">
         <v>8</v>
@@ -18319,7 +18331,7 @@
         <v>155</v>
       </c>
       <c r="AI137" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AJ137">
         <v>5</v>
@@ -19069,7 +19081,7 @@
         <v>158</v>
       </c>
       <c r="AI143" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AJ143">
         <v>5</v>
@@ -19194,7 +19206,7 @@
         <v>68</v>
       </c>
       <c r="AI144" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AJ144">
         <v>8</v>
@@ -19319,7 +19331,7 @@
         <v>109</v>
       </c>
       <c r="AI145" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AJ145">
         <v>5</v>
@@ -19444,7 +19456,7 @@
         <v>63</v>
       </c>
       <c r="AI146" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AJ146">
         <v>8</v>
@@ -19569,7 +19581,7 @@
         <v>159</v>
       </c>
       <c r="AI147" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AJ147">
         <v>3</v>
@@ -19694,7 +19706,7 @@
         <v>159</v>
       </c>
       <c r="AI148" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AJ148">
         <v>5</v>
@@ -19944,7 +19956,7 @@
         <v>160</v>
       </c>
       <c r="AI150" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AJ150">
         <v>6</v>
@@ -20069,7 +20081,7 @@
         <v>63</v>
       </c>
       <c r="AI151" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AJ151">
         <v>10</v>
@@ -20444,7 +20456,7 @@
         <v>163</v>
       </c>
       <c r="AI154" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AJ154">
         <v>4</v>
@@ -20569,7 +20581,7 @@
         <v>164</v>
       </c>
       <c r="AI155" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AJ155">
         <v>3</v>
@@ -21819,7 +21831,7 @@
         <v>168</v>
       </c>
       <c r="AI165" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AJ165">
         <v>7</v>
@@ -22069,7 +22081,7 @@
         <v>169</v>
       </c>
       <c r="AI167" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AJ167">
         <v>6</v>
@@ -22194,7 +22206,7 @@
         <v>63</v>
       </c>
       <c r="AI168" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AJ168">
         <v>3</v>
@@ -22444,7 +22456,7 @@
         <v>63</v>
       </c>
       <c r="AI170" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AJ170">
         <v>5</v>
@@ -22819,7 +22831,7 @@
         <v>171</v>
       </c>
       <c r="AI173" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AJ173">
         <v>7</v>
@@ -23319,7 +23331,7 @@
         <v>175</v>
       </c>
       <c r="AI177" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AJ177">
         <v>10</v>
@@ -23569,7 +23581,7 @@
         <v>177</v>
       </c>
       <c r="AI179" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AJ179">
         <v>8</v>
@@ -23694,7 +23706,7 @@
         <v>178</v>
       </c>
       <c r="AI180" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AJ180">
         <v>6</v>
@@ -23944,7 +23956,7 @@
         <v>179</v>
       </c>
       <c r="AI182" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AJ182">
         <v>5</v>
@@ -24194,7 +24206,7 @@
         <v>181</v>
       </c>
       <c r="AI184" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AJ184">
         <v>6</v>
@@ -24694,7 +24706,7 @@
         <v>63</v>
       </c>
       <c r="AI188" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AJ188">
         <v>7</v>
@@ -24819,7 +24831,7 @@
         <v>184</v>
       </c>
       <c r="AI189" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="AJ189">
         <v>7</v>
@@ -25194,7 +25206,7 @@
         <v>114</v>
       </c>
       <c r="AI192" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AJ192">
         <v>8</v>
@@ -25944,7 +25956,7 @@
         <v>188</v>
       </c>
       <c r="AI198" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AJ198">
         <v>7</v>
@@ -26069,7 +26081,7 @@
         <v>63</v>
       </c>
       <c r="AI199" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AJ199">
         <v>6</v>
@@ -26319,7 +26331,7 @@
         <v>190</v>
       </c>
       <c r="AI201" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AJ201">
         <v>5</v>
@@ -26444,7 +26456,7 @@
         <v>63</v>
       </c>
       <c r="AI202" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AJ202">
         <v>4</v>
@@ -26694,7 +26706,7 @@
         <v>127</v>
       </c>
       <c r="AI204" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AJ204">
         <v>3</v>
@@ -26819,7 +26831,7 @@
         <v>191</v>
       </c>
       <c r="AI205" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="AJ205">
         <v>6</v>
@@ -26944,7 +26956,7 @@
         <v>63</v>
       </c>
       <c r="AI206" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AJ206">
         <v>6</v>
@@ -27444,7 +27456,7 @@
         <v>195</v>
       </c>
       <c r="AI210" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AJ210">
         <v>8</v>
@@ -27569,7 +27581,7 @@
         <v>72</v>
       </c>
       <c r="AI211" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AJ211">
         <v>3</v>
@@ -27588,6 +27600,1256 @@
       </c>
       <c r="AO211">
         <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:41">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>41</v>
+      </c>
+      <c r="C212" t="s">
+        <v>42</v>
+      </c>
+      <c r="D212" s="2">
+        <v>44786.6875</v>
+      </c>
+      <c r="E212">
+        <v>22</v>
+      </c>
+      <c r="F212" t="s">
+        <v>53</v>
+      </c>
+      <c r="G212" t="s">
+        <v>51</v>
+      </c>
+      <c r="H212">
+        <v>2.7</v>
+      </c>
+      <c r="I212">
+        <v>1.95</v>
+      </c>
+      <c r="J212">
+        <v>4.4</v>
+      </c>
+      <c r="K212">
+        <v>1.5</v>
+      </c>
+      <c r="L212">
+        <v>3.25</v>
+      </c>
+      <c r="M212">
+        <v>9.25</v>
+      </c>
+      <c r="N212">
+        <v>2.4</v>
+      </c>
+      <c r="O212">
+        <v>1.29</v>
+      </c>
+      <c r="P212">
+        <v>1.05</v>
+      </c>
+      <c r="Q212">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>1</v>
+      </c>
+      <c r="S212">
+        <v>1</v>
+      </c>
+      <c r="T212">
+        <v>2.03</v>
+      </c>
+      <c r="U212">
+        <v>3.2</v>
+      </c>
+      <c r="V212">
+        <v>3.78</v>
+      </c>
+      <c r="W212">
+        <v>1.08</v>
+      </c>
+      <c r="X212">
+        <v>1.44</v>
+      </c>
+      <c r="Y212">
+        <v>2.21</v>
+      </c>
+      <c r="Z212">
+        <v>7</v>
+      </c>
+      <c r="AA212">
+        <v>2.62</v>
+      </c>
+      <c r="AB212">
+        <v>1.59</v>
+      </c>
+      <c r="AC212">
+        <v>1</v>
+      </c>
+      <c r="AD212">
+        <v>1</v>
+      </c>
+      <c r="AE212">
+        <v>2</v>
+      </c>
+      <c r="AF212">
+        <v>2</v>
+      </c>
+      <c r="AG212">
+        <v>1.71</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI212" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ212">
+        <v>5</v>
+      </c>
+      <c r="AK212">
+        <v>4</v>
+      </c>
+      <c r="AL212">
+        <v>15</v>
+      </c>
+      <c r="AM212">
+        <v>9</v>
+      </c>
+      <c r="AN212">
+        <v>20</v>
+      </c>
+      <c r="AO212">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:41">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>41</v>
+      </c>
+      <c r="C213" t="s">
+        <v>42</v>
+      </c>
+      <c r="D213" s="2">
+        <v>44786.79166666666</v>
+      </c>
+      <c r="E213">
+        <v>22</v>
+      </c>
+      <c r="F213" t="s">
+        <v>55</v>
+      </c>
+      <c r="G213" t="s">
+        <v>45</v>
+      </c>
+      <c r="H213">
+        <v>3.5</v>
+      </c>
+      <c r="I213">
+        <v>1.91</v>
+      </c>
+      <c r="J213">
+        <v>3.2</v>
+      </c>
+      <c r="K213">
+        <v>1.55</v>
+      </c>
+      <c r="L213">
+        <v>3.4</v>
+      </c>
+      <c r="M213">
+        <v>9.4</v>
+      </c>
+      <c r="N213">
+        <v>2.39</v>
+      </c>
+      <c r="O213">
+        <v>1.3</v>
+      </c>
+      <c r="P213">
+        <v>1.05</v>
+      </c>
+      <c r="Q213">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>0</v>
+      </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
+      <c r="T213">
+        <v>3.18</v>
+      </c>
+      <c r="U213">
+        <v>3.05</v>
+      </c>
+      <c r="V213">
+        <v>2.34</v>
+      </c>
+      <c r="W213">
+        <v>1.09</v>
+      </c>
+      <c r="X213">
+        <v>1.44</v>
+      </c>
+      <c r="Y213">
+        <v>2.27</v>
+      </c>
+      <c r="Z213">
+        <v>8.15</v>
+      </c>
+      <c r="AA213">
+        <v>2.82</v>
+      </c>
+      <c r="AB213">
+        <v>1.56</v>
+      </c>
+      <c r="AC213">
+        <v>0</v>
+      </c>
+      <c r="AD213">
+        <v>1</v>
+      </c>
+      <c r="AE213">
+        <v>1</v>
+      </c>
+      <c r="AF213">
+        <v>1.99</v>
+      </c>
+      <c r="AG213">
+        <v>1.78</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ213">
+        <v>4</v>
+      </c>
+      <c r="AK213">
+        <v>5</v>
+      </c>
+      <c r="AL213">
+        <v>12</v>
+      </c>
+      <c r="AM213">
+        <v>6</v>
+      </c>
+      <c r="AN213">
+        <v>16</v>
+      </c>
+      <c r="AO213">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:41">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>41</v>
+      </c>
+      <c r="C214" t="s">
+        <v>42</v>
+      </c>
+      <c r="D214" s="2">
+        <v>44786.85416666666</v>
+      </c>
+      <c r="E214">
+        <v>22</v>
+      </c>
+      <c r="F214" t="s">
+        <v>56</v>
+      </c>
+      <c r="G214" t="s">
+        <v>52</v>
+      </c>
+      <c r="H214">
+        <v>2.88</v>
+      </c>
+      <c r="I214">
+        <v>1.91</v>
+      </c>
+      <c r="J214">
+        <v>3.9</v>
+      </c>
+      <c r="K214">
+        <v>1.61</v>
+      </c>
+      <c r="L214">
+        <v>3.7</v>
+      </c>
+      <c r="M214">
+        <v>10</v>
+      </c>
+      <c r="N214">
+        <v>2.26</v>
+      </c>
+      <c r="O214">
+        <v>1.26</v>
+      </c>
+      <c r="P214">
+        <v>1.04</v>
+      </c>
+      <c r="Q214">
+        <v>1</v>
+      </c>
+      <c r="R214">
+        <v>0</v>
+      </c>
+      <c r="S214">
+        <v>1</v>
+      </c>
+      <c r="T214">
+        <v>2.15</v>
+      </c>
+      <c r="U214">
+        <v>2.95</v>
+      </c>
+      <c r="V214">
+        <v>3.76</v>
+      </c>
+      <c r="W214">
+        <v>1.11</v>
+      </c>
+      <c r="X214">
+        <v>1.5</v>
+      </c>
+      <c r="Y214">
+        <v>2.69</v>
+      </c>
+      <c r="Z214">
+        <v>7.3</v>
+      </c>
+      <c r="AA214">
+        <v>2.55</v>
+      </c>
+      <c r="AB214">
+        <v>1.41</v>
+      </c>
+      <c r="AC214">
+        <v>1</v>
+      </c>
+      <c r="AD214">
+        <v>0</v>
+      </c>
+      <c r="AE214">
+        <v>1</v>
+      </c>
+      <c r="AF214">
+        <v>2.17</v>
+      </c>
+      <c r="AG214">
+        <v>1.66</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI214" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ214">
+        <v>5</v>
+      </c>
+      <c r="AK214">
+        <v>3</v>
+      </c>
+      <c r="AL214">
+        <v>8</v>
+      </c>
+      <c r="AM214">
+        <v>3</v>
+      </c>
+      <c r="AN214">
+        <v>13</v>
+      </c>
+      <c r="AO214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:41">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>41</v>
+      </c>
+      <c r="C215" t="s">
+        <v>42</v>
+      </c>
+      <c r="D215" s="2">
+        <v>44786.875</v>
+      </c>
+      <c r="E215">
+        <v>22</v>
+      </c>
+      <c r="F215" t="s">
+        <v>48</v>
+      </c>
+      <c r="G215" t="s">
+        <v>44</v>
+      </c>
+      <c r="H215">
+        <v>2.93</v>
+      </c>
+      <c r="I215">
+        <v>2.09</v>
+      </c>
+      <c r="J215">
+        <v>4.44</v>
+      </c>
+      <c r="K215">
+        <v>1.51</v>
+      </c>
+      <c r="L215">
+        <v>3.1</v>
+      </c>
+      <c r="M215">
+        <v>8.25</v>
+      </c>
+      <c r="N215">
+        <v>2.62</v>
+      </c>
+      <c r="O215">
+        <v>1.33</v>
+      </c>
+      <c r="P215">
+        <v>1.06</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>0</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215">
+        <v>2.01</v>
+      </c>
+      <c r="U215">
+        <v>3.12</v>
+      </c>
+      <c r="V215">
+        <v>3.37</v>
+      </c>
+      <c r="W215">
+        <v>1.08</v>
+      </c>
+      <c r="X215">
+        <v>1.42</v>
+      </c>
+      <c r="Y215">
+        <v>2.18</v>
+      </c>
+      <c r="Z215">
+        <v>8.5</v>
+      </c>
+      <c r="AA215">
+        <v>2.85</v>
+      </c>
+      <c r="AB215">
+        <v>1.73</v>
+      </c>
+      <c r="AC215">
+        <v>0</v>
+      </c>
+      <c r="AD215">
+        <v>0</v>
+      </c>
+      <c r="AE215">
+        <v>0</v>
+      </c>
+      <c r="AF215">
+        <v>1.9</v>
+      </c>
+      <c r="AG215">
+        <v>1.8</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI215" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ215">
+        <v>6</v>
+      </c>
+      <c r="AK215">
+        <v>4</v>
+      </c>
+      <c r="AL215">
+        <v>11</v>
+      </c>
+      <c r="AM215">
+        <v>10</v>
+      </c>
+      <c r="AN215">
+        <v>17</v>
+      </c>
+      <c r="AO215">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:41">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>41</v>
+      </c>
+      <c r="C216" t="s">
+        <v>42</v>
+      </c>
+      <c r="D216" s="2">
+        <v>44787.45833333334</v>
+      </c>
+      <c r="E216">
+        <v>22</v>
+      </c>
+      <c r="F216" t="s">
+        <v>46</v>
+      </c>
+      <c r="G216" t="s">
+        <v>47</v>
+      </c>
+      <c r="H216">
+        <v>4.5</v>
+      </c>
+      <c r="I216">
+        <v>1.98</v>
+      </c>
+      <c r="J216">
+        <v>2.55</v>
+      </c>
+      <c r="K216">
+        <v>1.47</v>
+      </c>
+      <c r="L216">
+        <v>3.2</v>
+      </c>
+      <c r="M216">
+        <v>8.75</v>
+      </c>
+      <c r="N216">
+        <v>2.45</v>
+      </c>
+      <c r="O216">
+        <v>1.3</v>
+      </c>
+      <c r="P216">
+        <v>1.06</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>0</v>
+      </c>
+      <c r="S216">
+        <v>0</v>
+      </c>
+      <c r="T216">
+        <v>4.1</v>
+      </c>
+      <c r="U216">
+        <v>3.15</v>
+      </c>
+      <c r="V216">
+        <v>1.85</v>
+      </c>
+      <c r="W216">
+        <v>1.08</v>
+      </c>
+      <c r="X216">
+        <v>1.4</v>
+      </c>
+      <c r="Y216">
+        <v>2.1</v>
+      </c>
+      <c r="Z216">
+        <v>7</v>
+      </c>
+      <c r="AA216">
+        <v>2.75</v>
+      </c>
+      <c r="AB216">
+        <v>1.65</v>
+      </c>
+      <c r="AC216">
+        <v>0</v>
+      </c>
+      <c r="AD216">
+        <v>1</v>
+      </c>
+      <c r="AE216">
+        <v>1</v>
+      </c>
+      <c r="AF216">
+        <v>2</v>
+      </c>
+      <c r="AG216">
+        <v>1.71</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ216">
+        <v>3</v>
+      </c>
+      <c r="AK216">
+        <v>10</v>
+      </c>
+      <c r="AL216">
+        <v>5</v>
+      </c>
+      <c r="AM216">
+        <v>12</v>
+      </c>
+      <c r="AN216">
+        <v>8</v>
+      </c>
+      <c r="AO216">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="217" spans="1:41">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>41</v>
+      </c>
+      <c r="C217" t="s">
+        <v>42</v>
+      </c>
+      <c r="D217" s="2">
+        <v>44787.66666666666</v>
+      </c>
+      <c r="E217">
+        <v>22</v>
+      </c>
+      <c r="F217" t="s">
+        <v>58</v>
+      </c>
+      <c r="G217" t="s">
+        <v>60</v>
+      </c>
+      <c r="H217">
+        <v>1.95</v>
+      </c>
+      <c r="I217">
+        <v>2.3</v>
+      </c>
+      <c r="J217">
+        <v>6.25</v>
+      </c>
+      <c r="K217">
+        <v>1.36</v>
+      </c>
+      <c r="L217">
+        <v>2.65</v>
+      </c>
+      <c r="M217">
+        <v>6.75</v>
+      </c>
+      <c r="N217">
+        <v>2.87</v>
+      </c>
+      <c r="O217">
+        <v>1.41</v>
+      </c>
+      <c r="P217">
+        <v>1.09</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>0</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217">
+        <v>1.41</v>
+      </c>
+      <c r="U217">
+        <v>4.2</v>
+      </c>
+      <c r="V217">
+        <v>6.6</v>
+      </c>
+      <c r="W217">
+        <v>1.05</v>
+      </c>
+      <c r="X217">
+        <v>1.29</v>
+      </c>
+      <c r="Y217">
+        <v>1.75</v>
+      </c>
+      <c r="Z217">
+        <v>9</v>
+      </c>
+      <c r="AA217">
+        <v>3.5</v>
+      </c>
+      <c r="AB217">
+        <v>1.95</v>
+      </c>
+      <c r="AC217">
+        <v>5</v>
+      </c>
+      <c r="AD217">
+        <v>0</v>
+      </c>
+      <c r="AE217">
+        <v>5</v>
+      </c>
+      <c r="AF217">
+        <v>2.05</v>
+      </c>
+      <c r="AG217">
+        <v>1.7</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI217" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ217">
+        <v>12</v>
+      </c>
+      <c r="AK217">
+        <v>4</v>
+      </c>
+      <c r="AL217">
+        <v>9</v>
+      </c>
+      <c r="AM217">
+        <v>2</v>
+      </c>
+      <c r="AN217">
+        <v>21</v>
+      </c>
+      <c r="AO217">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:41">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>41</v>
+      </c>
+      <c r="C218" t="s">
+        <v>42</v>
+      </c>
+      <c r="D218" s="2">
+        <v>44787.66666666666</v>
+      </c>
+      <c r="E218">
+        <v>22</v>
+      </c>
+      <c r="F218" t="s">
+        <v>50</v>
+      </c>
+      <c r="G218" t="s">
+        <v>59</v>
+      </c>
+      <c r="H218">
+        <v>2.7</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218">
+        <v>4.1</v>
+      </c>
+      <c r="K218">
+        <v>1.46</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
+      <c r="M218">
+        <v>8.25</v>
+      </c>
+      <c r="N218">
+        <v>2.55</v>
+      </c>
+      <c r="O218">
+        <v>1.33</v>
+      </c>
+      <c r="P218">
+        <v>1.06</v>
+      </c>
+      <c r="Q218">
+        <v>1</v>
+      </c>
+      <c r="R218">
+        <v>0</v>
+      </c>
+      <c r="S218">
+        <v>1</v>
+      </c>
+      <c r="T218">
+        <v>1.96</v>
+      </c>
+      <c r="U218">
+        <v>3.2</v>
+      </c>
+      <c r="V218">
+        <v>3.65</v>
+      </c>
+      <c r="W218">
+        <v>1.08</v>
+      </c>
+      <c r="X218">
+        <v>1.4</v>
+      </c>
+      <c r="Y218">
+        <v>2.1</v>
+      </c>
+      <c r="Z218">
+        <v>7</v>
+      </c>
+      <c r="AA218">
+        <v>2.75</v>
+      </c>
+      <c r="AB218">
+        <v>1.65</v>
+      </c>
+      <c r="AC218">
+        <v>3</v>
+      </c>
+      <c r="AD218">
+        <v>0</v>
+      </c>
+      <c r="AE218">
+        <v>3</v>
+      </c>
+      <c r="AF218">
+        <v>1.93</v>
+      </c>
+      <c r="AG218">
+        <v>1.78</v>
+      </c>
+      <c r="AH218" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI218" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ218">
+        <v>6</v>
+      </c>
+      <c r="AK218">
+        <v>5</v>
+      </c>
+      <c r="AL218">
+        <v>12</v>
+      </c>
+      <c r="AM218">
+        <v>9</v>
+      </c>
+      <c r="AN218">
+        <v>18</v>
+      </c>
+      <c r="AO218">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:41">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>41</v>
+      </c>
+      <c r="C219" t="s">
+        <v>42</v>
+      </c>
+      <c r="D219" s="2">
+        <v>44787.66666666666</v>
+      </c>
+      <c r="E219">
+        <v>22</v>
+      </c>
+      <c r="F219" t="s">
+        <v>62</v>
+      </c>
+      <c r="G219" t="s">
+        <v>49</v>
+      </c>
+      <c r="H219">
+        <v>3.1</v>
+      </c>
+      <c r="I219">
+        <v>1.93</v>
+      </c>
+      <c r="J219">
+        <v>3.7</v>
+      </c>
+      <c r="K219">
+        <v>1.51</v>
+      </c>
+      <c r="L219">
+        <v>3.3</v>
+      </c>
+      <c r="M219">
+        <v>9.5</v>
+      </c>
+      <c r="N219">
+        <v>2.35</v>
+      </c>
+      <c r="O219">
+        <v>1.28</v>
+      </c>
+      <c r="P219">
+        <v>1.05</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>1</v>
+      </c>
+      <c r="S219">
+        <v>1</v>
+      </c>
+      <c r="T219">
+        <v>2.4</v>
+      </c>
+      <c r="U219">
+        <v>2.95</v>
+      </c>
+      <c r="V219">
+        <v>2.9</v>
+      </c>
+      <c r="W219">
+        <v>1.11</v>
+      </c>
+      <c r="X219">
+        <v>1.5</v>
+      </c>
+      <c r="Y219">
+        <v>2.35</v>
+      </c>
+      <c r="Z219">
+        <v>6</v>
+      </c>
+      <c r="AA219">
+        <v>2.5</v>
+      </c>
+      <c r="AB219">
+        <v>1.53</v>
+      </c>
+      <c r="AC219">
+        <v>0</v>
+      </c>
+      <c r="AD219">
+        <v>1</v>
+      </c>
+      <c r="AE219">
+        <v>1</v>
+      </c>
+      <c r="AF219">
+        <v>2.05</v>
+      </c>
+      <c r="AG219">
+        <v>1.7</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI219" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ219">
+        <v>5</v>
+      </c>
+      <c r="AK219">
+        <v>6</v>
+      </c>
+      <c r="AL219">
+        <v>9</v>
+      </c>
+      <c r="AM219">
+        <v>7</v>
+      </c>
+      <c r="AN219">
+        <v>14</v>
+      </c>
+      <c r="AO219">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:41">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>41</v>
+      </c>
+      <c r="C220" t="s">
+        <v>42</v>
+      </c>
+      <c r="D220" s="2">
+        <v>44787.75</v>
+      </c>
+      <c r="E220">
+        <v>22</v>
+      </c>
+      <c r="F220" t="s">
+        <v>54</v>
+      </c>
+      <c r="G220" t="s">
+        <v>57</v>
+      </c>
+      <c r="H220">
+        <v>2.95</v>
+      </c>
+      <c r="I220">
+        <v>1.93</v>
+      </c>
+      <c r="J220">
+        <v>3.9</v>
+      </c>
+      <c r="K220">
+        <v>1.51</v>
+      </c>
+      <c r="L220">
+        <v>3.3</v>
+      </c>
+      <c r="M220">
+        <v>9.25</v>
+      </c>
+      <c r="N220">
+        <v>2.37</v>
+      </c>
+      <c r="O220">
+        <v>1.29</v>
+      </c>
+      <c r="P220">
+        <v>1.05</v>
+      </c>
+      <c r="Q220">
+        <v>1</v>
+      </c>
+      <c r="R220">
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <v>1</v>
+      </c>
+      <c r="T220">
+        <v>2.27</v>
+      </c>
+      <c r="U220">
+        <v>3.1</v>
+      </c>
+      <c r="V220">
+        <v>3</v>
+      </c>
+      <c r="W220">
+        <v>1.1</v>
+      </c>
+      <c r="X220">
+        <v>1.44</v>
+      </c>
+      <c r="Y220">
+        <v>2.3</v>
+      </c>
+      <c r="Z220">
+        <v>6.5</v>
+      </c>
+      <c r="AA220">
+        <v>2.62</v>
+      </c>
+      <c r="AB220">
+        <v>1.55</v>
+      </c>
+      <c r="AC220">
+        <v>1</v>
+      </c>
+      <c r="AD220">
+        <v>0</v>
+      </c>
+      <c r="AE220">
+        <v>1</v>
+      </c>
+      <c r="AF220">
+        <v>2</v>
+      </c>
+      <c r="AG220">
+        <v>1.73</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI220" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ220">
+        <v>6</v>
+      </c>
+      <c r="AK220">
+        <v>2</v>
+      </c>
+      <c r="AL220">
+        <v>12</v>
+      </c>
+      <c r="AM220">
+        <v>11</v>
+      </c>
+      <c r="AN220">
+        <v>18</v>
+      </c>
+      <c r="AO220">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:41">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>41</v>
+      </c>
+      <c r="C221" t="s">
+        <v>42</v>
+      </c>
+      <c r="D221" s="2">
+        <v>44787.79166666666</v>
+      </c>
+      <c r="E221">
+        <v>22</v>
+      </c>
+      <c r="F221" t="s">
+        <v>61</v>
+      </c>
+      <c r="G221" t="s">
+        <v>43</v>
+      </c>
+      <c r="H221">
+        <v>3.15</v>
+      </c>
+      <c r="I221">
+        <v>1.95</v>
+      </c>
+      <c r="J221">
+        <v>3.5</v>
+      </c>
+      <c r="K221">
+        <v>1.5</v>
+      </c>
+      <c r="L221">
+        <v>3.25</v>
+      </c>
+      <c r="M221">
+        <v>10</v>
+      </c>
+      <c r="N221">
+        <v>2.45</v>
+      </c>
+      <c r="O221">
+        <v>1.3</v>
+      </c>
+      <c r="P221">
+        <v>1.05</v>
+      </c>
+      <c r="Q221">
+        <v>1</v>
+      </c>
+      <c r="R221">
+        <v>0</v>
+      </c>
+      <c r="S221">
+        <v>1</v>
+      </c>
+      <c r="T221">
+        <v>2.49</v>
+      </c>
+      <c r="U221">
+        <v>3</v>
+      </c>
+      <c r="V221">
+        <v>2.75</v>
+      </c>
+      <c r="W221">
+        <v>1.09</v>
+      </c>
+      <c r="X221">
+        <v>1.42</v>
+      </c>
+      <c r="Y221">
+        <v>2.25</v>
+      </c>
+      <c r="Z221">
+        <v>8.35</v>
+      </c>
+      <c r="AA221">
+        <v>2.87</v>
+      </c>
+      <c r="AB221">
+        <v>1.57</v>
+      </c>
+      <c r="AC221">
+        <v>3</v>
+      </c>
+      <c r="AD221">
+        <v>0</v>
+      </c>
+      <c r="AE221">
+        <v>3</v>
+      </c>
+      <c r="AF221">
+        <v>1.95</v>
+      </c>
+      <c r="AG221">
+        <v>1.78</v>
+      </c>
+      <c r="AH221" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI221" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ221">
+        <v>7</v>
+      </c>
+      <c r="AK221">
+        <v>0</v>
+      </c>
+      <c r="AL221">
+        <v>10</v>
+      </c>
+      <c r="AM221">
+        <v>10</v>
+      </c>
+      <c r="AN221">
+        <v>17</v>
+      </c>
+      <c r="AO221">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
